--- a/hybris-nao-tests/src/main/resources/ShoppingCartUITest.xlsx
+++ b/hybris-nao-tests/src/main/resources/ShoppingCartUITest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajkumars\git\IRWWebservice\hybris-nao-tests\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3F357-8A43-4373-AC12-6D775586E50D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B4481-1453-4233-8243-B1D3358A6928}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>TestData2</t>
   </si>
@@ -43,13 +43,25 @@
     <t>Bobcat of Regina Ltd,Regina,SK</t>
   </si>
   <si>
-    <t>85D10</t>
-  </si>
-  <si>
     <t>Welcome1</t>
   </si>
   <si>
-    <t>1364913,1364915,1364916</t>
+    <t>berberich</t>
+  </si>
+  <si>
+    <t>Doosan</t>
+  </si>
+  <si>
+    <t>Welcome2</t>
+  </si>
+  <si>
+    <t>Partially in Stock</t>
+  </si>
+  <si>
+    <t>1364913,1364915,1364916,1364918,1364919,1364920</t>
+  </si>
+  <si>
+    <t>2474-9019</t>
   </si>
 </sst>
 </file>
@@ -1022,16 +1034,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2"/>
+    <col min="2" max="2" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,15 +1059,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1063,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,15 +1083,15 @@
         <v>1225987</v>
       </c>
       <c r="B5" s="6">
-        <v>1225987</v>
+        <v>1123154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
+      <c r="A6" s="6">
+        <v>6711632</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,20 +1126,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>500</v>
+      </c>
+      <c r="B12" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="Welcome@1" xr:uid="{2FA485AF-D0C8-4094-BCB3-9C8B19CFCDFE}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Welcome@1" xr:uid="{C19444BE-DE9D-4A3E-B868-2CD2E33B10D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>